--- a/Expenses/OlavDalland/Faktura605 Kim Skåtun.xlsx
+++ b/Expenses/OlavDalland/Faktura605 Kim Skåtun.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alfalavalonline-my.sharepoint.com/personal/kska_framo_no/Documents/Documents/GitHub/klubben/Expenses/OlavDalland/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_4C57ED3D9F1FF84888F7591176970E9211C64369" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B501B00-15A4-432E-A47E-B3FF8E9C7DD4}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="12120" windowHeight="9120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Faktura" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Faktura!$B$2:$N$54</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -68,9 +87,6 @@
   </si>
   <si>
     <t xml:space="preserve">SUM  </t>
-  </si>
-  <si>
-    <t>Org.nr.: NO 926 126 529 MVA</t>
   </si>
   <si>
     <t>Betalingsfrist: Netto pr.10 dager</t>
@@ -130,17 +146,20 @@
   <si>
     <t>3530.22 40068</t>
   </si>
+  <si>
+    <t>Org.nr.: NO 962 126 529 MVA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(&quot;kr&quot;* #,##0.00_);_(&quot;kr&quot;* \(#,##0.00\);_(&quot;kr&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode=";;;"/>
     <numFmt numFmtId="166" formatCode="\ &quot;kr&quot;* #,##0.00;\ &quot;kr&quot;* \-#,##0.00;\ &quot;kr&quot;* &quot;-&quot;??;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -696,31 +715,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -733,19 +752,18 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -756,43 +774,42 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -814,15 +831,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -835,29 +852,29 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -873,18 +890,18 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,10 +928,18 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Währung" xfId="1"/>
+    <cellStyle name="Währung" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -935,7 +960,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPr id="1029" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -964,9 +995,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1004,7 +1035,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1038,6 +1069,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1072,9 +1104,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1247,17 +1280,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Ark1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
@@ -1276,109 +1309,109 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="12.75" customHeight="1">
+    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="4"/>
       <c r="L3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="33">
+        <v>20</v>
+      </c>
+      <c r="M3" s="32">
         <v>605</v>
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="22.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:14" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="7" t="s">
@@ -1386,7 +1419,7 @@
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="4.5" customHeight="1" thickTop="1">
+    <row r="8" spans="1:14" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1401,13 +1434,13 @@
       <c r="M8" s="9"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1418,7 +1451,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1433,156 +1466,156 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
+    <row r="11" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="57"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="49"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="6" customHeight="1">
+    <row r="12" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="58"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="47"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="46"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="58"/>
+      <c r="D13" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="51" t="s">
+      <c r="L13" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="52">
-        <v>44614</v>
+      <c r="M13" s="50">
+        <v>44979</v>
       </c>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="58"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="51" t="s">
+      <c r="L14" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="3"/>
-      <c r="C15" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="40" t="s">
+      <c r="H15" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="58"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="54"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="52"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="56"/>
+      <c r="D16" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="54"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="87"/>
       <c r="L18" s="13" t="s">
         <v>13</v>
       </c>
@@ -1591,321 +1624,321 @@
       </c>
       <c r="N18" s="15"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27" t="str">
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26" t="str">
         <f t="shared" ref="M19:M35" si="0">IF(L19&lt;&gt;"",ROUND(L19*C19,2),"")</f>
         <v/>
       </c>
       <c r="N19" s="15"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="17">
         <v>23</v>
       </c>
-      <c r="D20" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="28">
+      <c r="D20" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="27">
         <v>520</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="28">
         <f t="shared" si="0"/>
         <v>11960</v>
       </c>
       <c r="N20" s="15"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29" t="str">
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N21" s="15"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29" t="str">
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N22" s="15"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="29" t="str">
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N23" s="15"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="29" t="str">
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N24" s="15"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="29" t="str">
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N25" s="15"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="29" t="str">
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N26" s="15"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="29" t="str">
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N27" s="15"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="29" t="str">
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="28" t="str">
         <f>IF(L28&lt;&gt;"",ROUND(L28*C28,2),"")</f>
         <v/>
       </c>
       <c r="N28" s="15"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="29" t="str">
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="29" t="str">
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N30" s="15"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="29" t="str">
+      <c r="D31" s="76"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="29" t="str">
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N32" s="15"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="29" t="str">
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N33" s="15"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="17"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="29" t="str">
+      <c r="D34" s="76"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="18"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="29" t="str">
+      <c r="D35" s="79"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1913,19 +1946,19 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="66">
+      <c r="I36" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="64">
         <f>IF(SUM(M19:M35)&gt;0,SUM(M19:M35),"")</f>
         <v>11960</v>
       </c>
       <c r="N36" s="15"/>
     </row>
-    <row r="37" spans="2:14" ht="13.5" customHeight="1">
+    <row r="37" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1933,81 +1966,81 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="48"/>
+      <c r="I37" s="47"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="67"/>
+      <c r="M37" s="65"/>
       <c r="N37" s="15"/>
     </row>
-    <row r="38" spans="2:14" ht="13.5" customHeight="1">
+    <row r="38" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="45"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="20"/>
-      <c r="I38" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="64"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="62">
+      <c r="I38" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="62"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="60">
         <v>0.25</v>
       </c>
-      <c r="M38" s="68">
+      <c r="M38" s="66">
         <f>IF(AND(L38&lt;&gt;"",$M$36&lt;&gt;""),ROUND(L38*$M$36,2),"")</f>
         <v>2990</v>
       </c>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="46"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="45"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="69"/>
+      <c r="I39" s="67"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="22"/>
-      <c r="M39" s="68" t="str">
+      <c r="M39" s="66" t="str">
         <f>IF(L39&lt;&gt;"",ROUND(L39*$M$36,2),"")</f>
         <v/>
       </c>
       <c r="N39" s="15"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="23"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="46"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="72" t="s">
+      <c r="I40" s="68"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="M40" s="30">
+      <c r="M40" s="29">
         <f>IF(M36&lt;&gt;"",SUM(M36:M39),"")</f>
         <v>14950</v>
       </c>
       <c r="N40" s="15"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="23"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2017,52 +2050,52 @@
       <c r="M41" s="3"/>
       <c r="N41" s="15"/>
     </row>
-    <row r="42" spans="2:14" ht="12.75" customHeight="1">
+    <row r="42" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" s="23"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
       <c r="N42" s="15"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
       <c r="C43" s="23"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
       <c r="N43" s="15"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
       <c r="N44" s="15"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2077,67 +2110,67 @@
       <c r="M45" s="3"/>
       <c r="N45" s="15"/>
     </row>
-    <row r="46" spans="2:14" ht="12.75" customHeight="1">
+    <row r="46" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
       <c r="N46" s="15"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="73"/>
-      <c r="M47" s="73"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
       <c r="N47" s="15"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
       <c r="N48" s="15"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
       <c r="N49" s="15"/>
     </row>
-    <row r="50" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
+    <row r="50" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2152,63 +2185,63 @@
       <c r="M50" s="3"/>
       <c r="N50" s="15"/>
     </row>
-    <row r="51" spans="2:14" ht="13.5" customHeight="1" thickTop="1">
+    <row r="51" spans="2:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
       <c r="N51" s="15"/>
     </row>
-    <row r="52" spans="2:14" ht="12.75" customHeight="1">
+    <row r="52" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
       <c r="M52" s="3"/>
       <c r="N52" s="15"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="73"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
       <c r="M53" s="3"/>
       <c r="N53" s="15"/>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="73"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="71"/>
       <c r="M54" s="3"/>
       <c r="N54" s="15"/>
     </row>
@@ -2247,30 +2280,30 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="12">
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Antall" error="Du må skrive inn et tall i denne cellen." promptTitle="Antall" sqref="C19:C35">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Antall" error="Du må skrive inn et tall i denne cellen." promptTitle="Antall" sqref="C19:C35" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>1000000000</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Kredittkortnummer" promptTitle="Kredittkortnummer" prompt="Skriv inn kundens kredittkortnummer i dette feltet." sqref="D42:F42"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Liten skrift" promptTitle="Liten skrift" prompt="Skriv inn liten skrift (fraskrivelser, garantiinformasjon, osv.) her. Hvis du ikke vil inkludere informasjon med liten skrift på fakturaen, klikker du i boksen og bruker Rediger|Slett|Innhold for å slette teksten Sett inn liten skrift her." sqref="C46"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Avslutningsmelding" promptTitle="Avslutningsmelding" prompt="Skriv inn en eventuell avslutningsmelding til kundene (firmaets slagord, formålserklæring osv.) Hvis du ikke ønsker å ha en avslutningsmelding, bruker du Rediger|Slett|Innhold for å fjerne den eksisterende teksten." sqref="D52"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Delstat/region" promptTitle="Delstat/region" prompt="Skriv inn forkortelsen for delstat/region i denne cellen." sqref="F15"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Skal ikke fylles ut" promptTitle="Skal ikke fylles ut" prompt="Bruk dette feltet for informasjon som ikke er inkludert andre steder på fakturaen. Du kan enten skrive rett inn på arket, eller skrive inn i feltet etter å ha skrevet ut arket." sqref="J42"/>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Pris per stk." error="Du må skrive inn et tall i denne cellen." promptTitle="Pris per stk." sqref="L19:L35">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Kredittkortnummer" promptTitle="Kredittkortnummer" prompt="Skriv inn kundens kredittkortnummer i dette feltet." sqref="D42:F42" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Liten skrift" promptTitle="Liten skrift" prompt="Skriv inn liten skrift (fraskrivelser, garantiinformasjon, osv.) her. Hvis du ikke vil inkludere informasjon med liten skrift på fakturaen, klikker du i boksen og bruker Rediger|Slett|Innhold for å slette teksten Sett inn liten skrift her." sqref="C46" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Avslutningsmelding" promptTitle="Avslutningsmelding" prompt="Skriv inn en eventuell avslutningsmelding til kundene (firmaets slagord, formålserklæring osv.) Hvis du ikke ønsker å ha en avslutningsmelding, bruker du Rediger|Slett|Innhold for å fjerne den eksisterende teksten." sqref="D52" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Delstat/region" promptTitle="Delstat/region" prompt="Skriv inn forkortelsen for delstat/region i denne cellen." sqref="F15" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Skal ikke fylles ut" promptTitle="Skal ikke fylles ut" prompt="Bruk dette feltet for informasjon som ikke er inkludert andre steder på fakturaen. Du kan enten skrive rett inn på arket, eller skrive inn i feltet etter å ha skrevet ut arket." sqref="J42" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Pris per stk." error="Du må skrive inn et tall i denne cellen." promptTitle="Pris per stk." sqref="L19:L35" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>1000000000</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Fraktkostnader" error="Skyggelagte celler inneholder formler og blir automatisk beregnet av Excel. IKKE skriv inn informasjon i disse cellene." promptTitle="Fraktkostnader" prompt="Skriv inn eventuelle fraktkostnader." sqref="M37"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Skattesats" prompt="Hvis du vil legge til skatt eller endre den tilhørende prosentsatsen, kan du skrive skattesatsen i cellen til venstre. Skattesatsen vil da bli beregnet automatisk." sqref="L38:L39"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Betaling:" prompt="Velg en betalingsmåte fra rullegardinlisten." sqref="D38">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Fraktkostnader" error="Skyggelagte celler inneholder formler og blir automatisk beregnet av Excel. IKKE skriv inn informasjon i disse cellene." promptTitle="Fraktkostnader" prompt="Skriv inn eventuelle fraktkostnader." sqref="M37" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Skattesats" prompt="Hvis du vil legge til skatt eller endre den tilhørende prosentsatsen, kan du skrive skattesatsen i cellen til venstre. Skattesatsen vil da bli beregnet automatisk." sqref="L38:L39" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Betaling:" prompt="Velg en betalingsmåte fra rullegardinlisten." sqref="D38" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>$A$2:$A$5</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Navn" prompt="Skriv inn kundens navn slik det vises på kredittkortet." sqref="D41:F41"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Informasjon om firmaet" prompt="Hvis du vil skrive inn flere linjer i en celle, bruker du Alt + Enter.  Du kan og tilpasse denne malen med informasjon om firmaet og lagre den som ny mal for fremtidig bruk. Hvis du vil ha mer informasjon om egendefinerte maler, se emner i Hjelp." sqref="C3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Navn" prompt="Skriv inn kundens navn slik det vises på kredittkortet." sqref="D41:F41" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Informasjon om firmaet" prompt="Hvis du vil skrive inn flere linjer i en celle, bruker du Alt + Enter.  Du kan og tilpasse denne malen med informasjon om firmaet og lagre den som ny mal for fremtidig bruk. Hvis du vil ha mer informasjon om egendefinerte maler, se emner i Hjelp." sqref="C3" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
